--- a/シナリオ.xlsx
+++ b/シナリオ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KentaroAoyama\Documents\GitHub\mufits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KentaroAoyama\Documents\Github\mufits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0232249-757A-48D7-8273-7D7DC3BDDFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984E80AB-CA49-4404-B48B-D26DEF5FFF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F3EEEA8-185E-411F-9206-21CE91BFA886}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{1F3EEEA8-185E-411F-9206-21CE91BFA886}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>流量</t>
   </si>
@@ -113,9 +113,6 @@
     <t>178℃</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>40℃</t>
   </si>
   <si>
@@ -207,17 +204,146 @@
   </si>
   <si>
     <t>蓄熱→崩壊</t>
+  </si>
+  <si>
+    <t>66℃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>65℃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25℃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO: 確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>506℃ (~50年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>679℃ (~40年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>724℃ (~40年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>572℃ (~60年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>705℃ (~20年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>695℃ (~20年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>687℃ (~10年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>703℃ (~10年)</t>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>257℃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>225℃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>725(~10年)</t>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~30年打切り</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウチキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~50年打切り</t>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウチキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RUNNING (500→250→500→250→250→250)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RUNNING (1day→4600s→75→250)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RUNNING (675→2000)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -244,12 +370,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -266,6 +386,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,19 +405,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -629,43 +759,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C780DBF0-A8F5-4FC9-8C5F-407B8246C5E1}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="54" x14ac:dyDescent="0.15">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+    </row>
+    <row r="2" spans="1:20" ht="75" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -685,43 +815,43 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>900</v>
       </c>
@@ -737,23 +867,23 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>900</v>
       </c>
@@ -769,23 +899,23 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>900</v>
       </c>
@@ -801,23 +931,23 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>900</v>
       </c>
@@ -833,23 +963,23 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>900</v>
       </c>
@@ -865,23 +995,23 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>900</v>
       </c>
@@ -897,23 +1027,23 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>900</v>
       </c>
@@ -929,19 +1059,39 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>900</v>
       </c>
@@ -957,25 +1107,35 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>900</v>
       </c>
@@ -991,25 +1151,35 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>900</v>
       </c>
@@ -1025,23 +1195,23 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>900</v>
       </c>
@@ -1057,23 +1227,35 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>900</v>
       </c>
@@ -1089,23 +1271,23 @@
       <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>900</v>
       </c>
@@ -1121,17 +1303,17 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>900</v>
       </c>
@@ -1147,21 +1329,21 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H16" s="5"/>
+      <c r="I16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>900</v>
       </c>
@@ -1177,21 +1359,21 @@
       <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H17" s="5"/>
+      <c r="I17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>900</v>
       </c>
@@ -1207,15 +1389,15 @@
       <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H18" s="5"/>
+      <c r="I18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>900</v>
       </c>
@@ -1231,21 +1413,21 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H19" s="5"/>
+      <c r="I19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>900</v>
       </c>
@@ -1261,21 +1443,21 @@
       <c r="E20" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H20" s="5"/>
+      <c r="I20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>900</v>
       </c>
@@ -1291,23 +1473,23 @@
       <c r="E21" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>900</v>
       </c>
@@ -1323,23 +1505,23 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>900</v>
       </c>
@@ -1355,19 +1537,19 @@
       <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>900</v>
       </c>
@@ -1383,23 +1565,23 @@
       <c r="E24" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>900</v>
       </c>
@@ -1415,23 +1597,23 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>900</v>
       </c>
@@ -1447,19 +1629,19 @@
       <c r="E26" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>900</v>
       </c>
@@ -1475,23 +1657,23 @@
       <c r="E27" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>900</v>
       </c>
@@ -1507,23 +1689,23 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="H28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>900</v>
       </c>
@@ -1539,23 +1721,23 @@
       <c r="E29" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>900</v>
       </c>
@@ -1571,23 +1753,23 @@
       <c r="E30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>900</v>
       </c>
@@ -1603,23 +1785,23 @@
       <c r="E31" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>900</v>
       </c>
@@ -1635,23 +1817,23 @@
       <c r="E32" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>900</v>
       </c>
@@ -1667,17 +1849,17 @@
       <c r="E33" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>900</v>
       </c>
@@ -1693,23 +1875,23 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>900</v>
       </c>
@@ -1725,23 +1907,23 @@
       <c r="E35" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>900</v>
       </c>
@@ -1757,17 +1939,17 @@
       <c r="E36" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>900</v>
       </c>
@@ -1783,21 +1965,21 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="F37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="5"/>
+      <c r="I37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>900</v>
       </c>
@@ -1813,19 +1995,19 @@
       <c r="E38" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="F38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1833,6 +2015,7 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="O1:T1"/>
   </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>